--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5478723869553</v>
+        <v>32.109325</v>
       </c>
       <c r="H2">
-        <v>20.5478723869553</v>
+        <v>64.21865</v>
       </c>
       <c r="I2">
-        <v>0.08077857100282636</v>
+        <v>0.1141736648813302</v>
       </c>
       <c r="J2">
-        <v>0.08077857100282636</v>
+        <v>0.08242563340967465</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>37.58813888190686</v>
+        <v>64.83020420394999</v>
       </c>
       <c r="R2">
-        <v>37.58813888190686</v>
+        <v>259.3208168158</v>
       </c>
       <c r="S2">
-        <v>0.0003002124756448423</v>
+        <v>0.0004538806586091887</v>
       </c>
       <c r="T2">
-        <v>0.0003002124756448423</v>
+        <v>0.0002231309321598975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5478723869553</v>
+        <v>32.109325</v>
       </c>
       <c r="H3">
-        <v>20.5478723869553</v>
+        <v>64.21865</v>
       </c>
       <c r="I3">
-        <v>0.08077857100282636</v>
+        <v>0.1141736648813302</v>
       </c>
       <c r="J3">
-        <v>0.08077857100282636</v>
+        <v>0.08242563340967465</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>2702.282974560066</v>
+        <v>4485.506269165416</v>
       </c>
       <c r="R3">
-        <v>2702.282974560066</v>
+        <v>26913.0376149925</v>
       </c>
       <c r="S3">
-        <v>0.02158284729750446</v>
+        <v>0.03140333374918478</v>
       </c>
       <c r="T3">
-        <v>0.02158284729750446</v>
+        <v>0.02315715045180198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5478723869553</v>
+        <v>32.109325</v>
       </c>
       <c r="H4">
-        <v>20.5478723869553</v>
+        <v>64.21865</v>
       </c>
       <c r="I4">
-        <v>0.08077857100282636</v>
+        <v>0.1141736648813302</v>
       </c>
       <c r="J4">
-        <v>0.08077857100282636</v>
+        <v>0.08242563340967465</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>3785.463822783651</v>
+        <v>5983.728561710442</v>
       </c>
       <c r="R4">
-        <v>3785.463822783651</v>
+        <v>35902.37137026265</v>
       </c>
       <c r="S4">
-        <v>0.03023409776345427</v>
+        <v>0.04189248967940585</v>
       </c>
       <c r="T4">
-        <v>0.03023409776345427</v>
+        <v>0.03089196497590791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5478723869553</v>
+        <v>32.109325</v>
       </c>
       <c r="H5">
-        <v>20.5478723869553</v>
+        <v>64.21865</v>
       </c>
       <c r="I5">
-        <v>0.08077857100282636</v>
+        <v>0.1141736648813302</v>
       </c>
       <c r="J5">
-        <v>0.08077857100282636</v>
+        <v>0.08242563340967465</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>2871.036868230409</v>
+        <v>4611.066017083783</v>
       </c>
       <c r="R5">
-        <v>2871.036868230409</v>
+        <v>27666.3961025027</v>
       </c>
       <c r="S5">
-        <v>0.02293066673471173</v>
+        <v>0.03228238606407044</v>
       </c>
       <c r="T5">
-        <v>0.02293066673471173</v>
+        <v>0.02380537292631364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5478723869553</v>
+        <v>32.109325</v>
       </c>
       <c r="H6">
-        <v>20.5478723869553</v>
+        <v>64.21865</v>
       </c>
       <c r="I6">
-        <v>0.08077857100282636</v>
+        <v>0.1141736648813302</v>
       </c>
       <c r="J6">
-        <v>0.08077857100282636</v>
+        <v>0.08242563340967465</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>101.8915076135906</v>
+        <v>200.8025780954834</v>
       </c>
       <c r="R6">
-        <v>101.8915076135906</v>
+        <v>1204.8154685729</v>
       </c>
       <c r="S6">
-        <v>0.0008137966565454371</v>
+        <v>0.001405832474469485</v>
       </c>
       <c r="T6">
-        <v>0.0008137966565454371</v>
+        <v>0.001036675735809866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5478723869553</v>
+        <v>32.109325</v>
       </c>
       <c r="H7">
-        <v>20.5478723869553</v>
+        <v>64.21865</v>
       </c>
       <c r="I7">
-        <v>0.08077857100282636</v>
+        <v>0.1141736648813302</v>
       </c>
       <c r="J7">
-        <v>0.08077857100282636</v>
+        <v>0.08242563340967465</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>615.6273216035664</v>
+        <v>962.1021244509624</v>
       </c>
       <c r="R7">
-        <v>615.6273216035664</v>
+        <v>3848.40849780385</v>
       </c>
       <c r="S7">
-        <v>0.004916950074965624</v>
+        <v>0.006735742255590432</v>
       </c>
       <c r="T7">
-        <v>0.004916950074965624</v>
+        <v>0.003311338387681358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>171.879755409951</v>
+        <v>182.5138956666667</v>
       </c>
       <c r="H8">
-        <v>171.879755409951</v>
+        <v>547.541687</v>
       </c>
       <c r="I8">
-        <v>0.6757001778512826</v>
+        <v>0.648979085048722</v>
       </c>
       <c r="J8">
-        <v>0.6757001778512826</v>
+        <v>0.7027782485177876</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>314.4189332925252</v>
+        <v>368.5039509902007</v>
       </c>
       <c r="R8">
-        <v>314.4189332925252</v>
+        <v>2211.023705941204</v>
       </c>
       <c r="S8">
-        <v>0.002511230647782766</v>
+        <v>0.002579921165285019</v>
       </c>
       <c r="T8">
-        <v>0.002511230647782766</v>
+        <v>0.001902461154457667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>171.879755409951</v>
+        <v>182.5138956666667</v>
       </c>
       <c r="H9">
-        <v>171.879755409951</v>
+        <v>547.541687</v>
       </c>
       <c r="I9">
-        <v>0.6757001778512826</v>
+        <v>0.648979085048722</v>
       </c>
       <c r="J9">
-        <v>0.6757001778512826</v>
+        <v>0.7027782485177876</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>22604.17662564051</v>
+        <v>25496.24519427412</v>
       </c>
       <c r="R9">
-        <v>22604.17662564051</v>
+        <v>229466.2067484671</v>
       </c>
       <c r="S9">
-        <v>0.1805371595017518</v>
+        <v>0.1785009426228743</v>
       </c>
       <c r="T9">
-        <v>0.1805371595017518</v>
+        <v>0.1974427245744417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>171.879755409951</v>
+        <v>182.5138956666667</v>
       </c>
       <c r="H10">
-        <v>171.879755409951</v>
+        <v>547.541687</v>
       </c>
       <c r="I10">
-        <v>0.6757001778512826</v>
+        <v>0.648979085048722</v>
       </c>
       <c r="J10">
-        <v>0.6757001778512826</v>
+        <v>0.7027782485177876</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>31664.81588557704</v>
+        <v>34012.35031909494</v>
       </c>
       <c r="R10">
-        <v>31664.81588557704</v>
+        <v>306111.1528718544</v>
       </c>
       <c r="S10">
-        <v>0.2529035235746411</v>
+        <v>0.2381227724520521</v>
       </c>
       <c r="T10">
-        <v>0.2529035235746411</v>
+        <v>0.2633913764561157</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>171.879755409951</v>
+        <v>182.5138956666667</v>
       </c>
       <c r="H11">
-        <v>171.879755409951</v>
+        <v>547.541687</v>
       </c>
       <c r="I11">
-        <v>0.6757001778512826</v>
+        <v>0.648979085048722</v>
       </c>
       <c r="J11">
-        <v>0.6757001778512826</v>
+        <v>0.7027782485177876</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>24015.77668925338</v>
+        <v>26209.94436831487</v>
       </c>
       <c r="R11">
-        <v>24015.77668925338</v>
+        <v>235889.4993148338</v>
       </c>
       <c r="S11">
-        <v>0.1918114593826013</v>
+        <v>0.1834975989675524</v>
       </c>
       <c r="T11">
-        <v>0.1918114593826013</v>
+        <v>0.202969605429854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>171.879755409951</v>
+        <v>182.5138956666667</v>
       </c>
       <c r="H12">
-        <v>171.879755409951</v>
+        <v>547.541687</v>
       </c>
       <c r="I12">
-        <v>0.6757001778512826</v>
+        <v>0.648979085048722</v>
       </c>
       <c r="J12">
-        <v>0.6757001778512826</v>
+        <v>0.7027782485177876</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>852.3066075733078</v>
+        <v>1141.389947877034</v>
       </c>
       <c r="R12">
-        <v>852.3066075733078</v>
+        <v>10272.50953089331</v>
       </c>
       <c r="S12">
-        <v>0.006807282410867249</v>
+        <v>0.007990948472760964</v>
       </c>
       <c r="T12">
-        <v>0.006807282410867249</v>
+        <v>0.008838914883095494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>171.879755409951</v>
+        <v>182.5138956666667</v>
       </c>
       <c r="H13">
-        <v>171.879755409951</v>
+        <v>547.541687</v>
       </c>
       <c r="I13">
-        <v>0.6757001778512826</v>
+        <v>0.648979085048722</v>
       </c>
       <c r="J13">
-        <v>0.6757001778512826</v>
+        <v>0.7027782485177876</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>5149.626757857402</v>
+        <v>5468.723081619478</v>
       </c>
       <c r="R13">
-        <v>5149.626757857402</v>
+        <v>32812.33848971687</v>
       </c>
       <c r="S13">
-        <v>0.04112952233363849</v>
+        <v>0.03828690136819725</v>
       </c>
       <c r="T13">
-        <v>0.04112952233363849</v>
+        <v>0.02823316601982307</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.24307428644459</v>
+        <v>5.454077666666667</v>
       </c>
       <c r="H14">
-        <v>5.24307428644459</v>
+        <v>16.362233</v>
       </c>
       <c r="I14">
-        <v>0.02061177140605233</v>
+        <v>0.0193934950594803</v>
       </c>
       <c r="J14">
-        <v>0.02061177140605233</v>
+        <v>0.02100117986008241</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>9.591134339151697</v>
+        <v>11.01203369657267</v>
       </c>
       <c r="R14">
-        <v>9.591134339151697</v>
+        <v>66.07220217943599</v>
       </c>
       <c r="S14">
-        <v>7.660337196383473E-05</v>
+        <v>7.709599511831325E-05</v>
       </c>
       <c r="T14">
-        <v>7.660337196383473E-05</v>
+        <v>5.685140222517036E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.24307428644459</v>
+        <v>5.454077666666667</v>
       </c>
       <c r="H15">
-        <v>5.24307428644459</v>
+        <v>16.362233</v>
       </c>
       <c r="I15">
-        <v>0.02061177140605233</v>
+        <v>0.0193934950594803</v>
       </c>
       <c r="J15">
-        <v>0.02061177140605233</v>
+        <v>0.02100117986008241</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>689.5249353216506</v>
+        <v>761.9063797307609</v>
       </c>
       <c r="R15">
-        <v>689.5249353216506</v>
+        <v>6857.157417576849</v>
       </c>
       <c r="S15">
-        <v>0.005507162472239464</v>
+        <v>0.005334158262757261</v>
       </c>
       <c r="T15">
-        <v>0.005507162472239464</v>
+        <v>0.005900197081508865</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.24307428644459</v>
+        <v>5.454077666666667</v>
       </c>
       <c r="H16">
-        <v>5.24307428644459</v>
+        <v>16.362233</v>
       </c>
       <c r="I16">
-        <v>0.02061177140605233</v>
+        <v>0.0193934950594803</v>
       </c>
       <c r="J16">
-        <v>0.02061177140605233</v>
+        <v>0.02100117986008241</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>965.913533904525</v>
+        <v>1016.393845458301</v>
       </c>
       <c r="R16">
-        <v>965.913533904525</v>
+        <v>9147.544609124714</v>
       </c>
       <c r="S16">
-        <v>0.007714648873235861</v>
+        <v>0.007115842278263752</v>
       </c>
       <c r="T16">
-        <v>0.007714648873235861</v>
+        <v>0.007870946037695351</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.24307428644459</v>
+        <v>5.454077666666667</v>
       </c>
       <c r="H17">
-        <v>5.24307428644459</v>
+        <v>16.362233</v>
       </c>
       <c r="I17">
-        <v>0.02061177140605233</v>
+        <v>0.0193934950594803</v>
       </c>
       <c r="J17">
-        <v>0.02061177140605233</v>
+        <v>0.02100117986008241</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>732.5848290166339</v>
+        <v>783.2339105011482</v>
       </c>
       <c r="R17">
-        <v>732.5848290166339</v>
+        <v>7049.105194510335</v>
       </c>
       <c r="S17">
-        <v>0.005851077272804309</v>
+        <v>0.005483473752835285</v>
       </c>
       <c r="T17">
-        <v>0.005851077272804309</v>
+        <v>0.006065357313992673</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.24307428644459</v>
+        <v>5.454077666666667</v>
       </c>
       <c r="H18">
-        <v>5.24307428644459</v>
+        <v>16.362233</v>
       </c>
       <c r="I18">
-        <v>0.02061177140605233</v>
+        <v>0.0193934950594803</v>
       </c>
       <c r="J18">
-        <v>0.02061177140605233</v>
+        <v>0.02100117986008241</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>25.99902965696048</v>
+        <v>34.10824913322423</v>
       </c>
       <c r="R18">
-        <v>25.99902965696048</v>
+        <v>306.9742421990181</v>
       </c>
       <c r="S18">
-        <v>0.0002076514903332139</v>
+        <v>0.0002387941665568727</v>
       </c>
       <c r="T18">
-        <v>0.0002076514903332139</v>
+        <v>0.0002641340161272072</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.24307428644459</v>
+        <v>5.454077666666667</v>
       </c>
       <c r="H19">
-        <v>5.24307428644459</v>
+        <v>16.362233</v>
       </c>
       <c r="I19">
-        <v>0.02061177140605233</v>
+        <v>0.0193934950594803</v>
       </c>
       <c r="J19">
-        <v>0.02061177140605233</v>
+        <v>0.02100117986008241</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>157.085839309648</v>
+        <v>163.4222989745361</v>
       </c>
       <c r="R19">
-        <v>157.085839309648</v>
+        <v>980.533793847217</v>
       </c>
       <c r="S19">
-        <v>0.001254627925475647</v>
+        <v>0.001144130603948813</v>
       </c>
       <c r="T19">
-        <v>0.001254627925475647</v>
+        <v>0.0008436940085331397</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.49117989397343</v>
+        <v>6.578932000000001</v>
       </c>
       <c r="H20">
-        <v>6.49117989397343</v>
+        <v>19.736796</v>
       </c>
       <c r="I20">
-        <v>0.02551837124948912</v>
+        <v>0.02339322852302436</v>
       </c>
       <c r="J20">
-        <v>0.02551837124948912</v>
+        <v>0.0253324838154887</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>11.87428882014136</v>
+        <v>13.283166338872</v>
       </c>
       <c r="R20">
-        <v>11.87428882014136</v>
+        <v>79.698998033232</v>
       </c>
       <c r="S20">
-        <v>9.483868446948943E-05</v>
+        <v>9.299634885208788E-05</v>
       </c>
       <c r="T20">
-        <v>9.483868446948943E-05</v>
+        <v>6.857649124249323E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.49117989397343</v>
+        <v>6.578932000000001</v>
       </c>
       <c r="H21">
-        <v>6.49117989397343</v>
+        <v>19.736796</v>
       </c>
       <c r="I21">
-        <v>0.02551837124948912</v>
+        <v>0.02339322852302436</v>
       </c>
       <c r="J21">
-        <v>0.02551837124948912</v>
+        <v>0.0253324838154887</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>853.6652643135366</v>
+        <v>919.0426996024667</v>
       </c>
       <c r="R21">
-        <v>853.6652643135366</v>
+        <v>8271.3842964222</v>
       </c>
       <c r="S21">
-        <v>0.006818133858043632</v>
+        <v>0.006434280300479431</v>
       </c>
       <c r="T21">
-        <v>0.006818133858043632</v>
+        <v>0.007117059521004001</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.49117989397343</v>
+        <v>6.578932000000001</v>
       </c>
       <c r="H22">
-        <v>6.49117989397343</v>
+        <v>19.736796</v>
       </c>
       <c r="I22">
-        <v>0.02551837124948912</v>
+        <v>0.02339322852302436</v>
       </c>
       <c r="J22">
-        <v>0.02551837124948912</v>
+        <v>0.0253324838154887</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>1195.847735136632</v>
+        <v>1226.015910142951</v>
       </c>
       <c r="R22">
-        <v>1195.847735136632</v>
+        <v>11034.14319128656</v>
       </c>
       <c r="S22">
-        <v>0.009551108933261273</v>
+        <v>0.008583420576779887</v>
       </c>
       <c r="T22">
-        <v>0.009551108933261273</v>
+        <v>0.0094942576769932</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.49117989397343</v>
+        <v>6.578932000000001</v>
       </c>
       <c r="H23">
-        <v>6.49117989397343</v>
+        <v>19.736796</v>
       </c>
       <c r="I23">
-        <v>0.02551837124948912</v>
+        <v>0.02339322852302436</v>
       </c>
       <c r="J23">
-        <v>0.02551837124948912</v>
+        <v>0.0253324838154887</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>906.9754981418366</v>
+        <v>944.7688412604455</v>
       </c>
       <c r="R23">
-        <v>906.9754981418366</v>
+        <v>8502.919571344009</v>
       </c>
       <c r="S23">
-        <v>0.007243917037282208</v>
+        <v>0.006614390763844056</v>
       </c>
       <c r="T23">
-        <v>0.007243917037282208</v>
+        <v>0.007316282562006136</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.49117989397343</v>
+        <v>6.578932000000001</v>
       </c>
       <c r="H24">
-        <v>6.49117989397343</v>
+        <v>19.736796</v>
       </c>
       <c r="I24">
-        <v>0.02551837124948912</v>
+        <v>0.02339322852302436</v>
       </c>
       <c r="J24">
-        <v>0.02551837124948912</v>
+        <v>0.0253324838154887</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>32.1880578744427</v>
+        <v>41.14276792535735</v>
       </c>
       <c r="R24">
-        <v>32.1880578744427</v>
+        <v>370.2849113282161</v>
       </c>
       <c r="S24">
-        <v>0.0002570826018028079</v>
+        <v>0.0002880433099396041</v>
       </c>
       <c r="T24">
-        <v>0.0002570826018028079</v>
+        <v>0.0003186092749665281</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.49117989397343</v>
+        <v>6.578932000000001</v>
       </c>
       <c r="H25">
-        <v>6.49117989397343</v>
+        <v>19.736796</v>
       </c>
       <c r="I25">
-        <v>0.02551837124948912</v>
+        <v>0.02339322852302436</v>
       </c>
       <c r="J25">
-        <v>0.02551837124948912</v>
+        <v>0.0253324838154887</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>194.4798768903547</v>
+        <v>197.126674379434</v>
       </c>
       <c r="R25">
-        <v>194.4798768903547</v>
+        <v>1182.760046276604</v>
       </c>
       <c r="S25">
-        <v>0.001553290134629715</v>
+        <v>0.001380097223129296</v>
       </c>
       <c r="T25">
-        <v>0.001553290134629715</v>
+        <v>0.001017698289276338</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.2652017763658</v>
+        <v>22.09862766666667</v>
       </c>
       <c r="H26">
-        <v>18.2652017763658</v>
+        <v>66.295883</v>
       </c>
       <c r="I26">
-        <v>0.0718048501950882</v>
+        <v>0.07857783710966491</v>
       </c>
       <c r="J26">
-        <v>0.0718048501950882</v>
+        <v>0.08509179418640352</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>33.41245887393894</v>
+        <v>44.61814579587267</v>
       </c>
       <c r="R26">
-        <v>33.41245887393894</v>
+        <v>267.708874775236</v>
       </c>
       <c r="S26">
-        <v>0.000266861762627866</v>
+        <v>0.0003123746662287639</v>
       </c>
       <c r="T26">
-        <v>0.000266861762627866</v>
+        <v>0.0002303483827852735</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>18.2652017763658</v>
+        <v>22.09862766666667</v>
       </c>
       <c r="H27">
-        <v>18.2652017763658</v>
+        <v>66.295883</v>
       </c>
       <c r="I27">
-        <v>0.0718048501950882</v>
+        <v>0.07857783710966491</v>
       </c>
       <c r="J27">
-        <v>0.0718048501950882</v>
+        <v>0.08509179418640352</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>2402.085376903161</v>
+        <v>3087.063740479928</v>
       </c>
       <c r="R27">
-        <v>2402.085376903161</v>
+        <v>27783.57366431935</v>
       </c>
       <c r="S27">
-        <v>0.01918520094799087</v>
+        <v>0.02161274271618297</v>
       </c>
       <c r="T27">
-        <v>0.01918520094799087</v>
+        <v>0.02390619760717582</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>18.2652017763658</v>
+        <v>22.09862766666667</v>
       </c>
       <c r="H28">
-        <v>18.2652017763658</v>
+        <v>66.295883</v>
       </c>
       <c r="I28">
-        <v>0.0718048501950882</v>
+        <v>0.07857783710966491</v>
       </c>
       <c r="J28">
-        <v>0.0718048501950882</v>
+        <v>0.08509179418640352</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>3364.935271068307</v>
+        <v>4118.186525055819</v>
       </c>
       <c r="R28">
-        <v>3364.935271068307</v>
+        <v>37063.67872550237</v>
       </c>
       <c r="S28">
-        <v>0.02687538085580303</v>
+        <v>0.02883170329662383</v>
       </c>
       <c r="T28">
-        <v>0.02687538085580303</v>
+        <v>0.03189120443489374</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>18.2652017763658</v>
+        <v>22.09862766666667</v>
       </c>
       <c r="H29">
-        <v>18.2652017763658</v>
+        <v>66.295883</v>
       </c>
       <c r="I29">
-        <v>0.0718048501950882</v>
+        <v>0.07857783710966491</v>
       </c>
       <c r="J29">
-        <v>0.0718048501950882</v>
+        <v>0.08509179418640352</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>2552.092339200288</v>
+        <v>3173.477831064782</v>
       </c>
       <c r="R29">
-        <v>2552.092339200288</v>
+        <v>28561.30047958304</v>
       </c>
       <c r="S29">
-        <v>0.02038329063411951</v>
+        <v>0.02221773362789413</v>
       </c>
       <c r="T29">
-        <v>0.02038329063411951</v>
+        <v>0.02457538765287431</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>18.2652017763658</v>
+        <v>22.09862766666667</v>
       </c>
       <c r="H30">
-        <v>18.2652017763658</v>
+        <v>66.295883</v>
       </c>
       <c r="I30">
-        <v>0.0718048501950882</v>
+        <v>0.07857783710966491</v>
       </c>
       <c r="J30">
-        <v>0.0718048501950882</v>
+        <v>0.08509179418640352</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>90.572343005295</v>
+        <v>138.1985266846576</v>
       </c>
       <c r="R30">
-        <v>90.572343005295</v>
+        <v>1243.786740161918</v>
       </c>
       <c r="S30">
-        <v>0.0007233916902350773</v>
+        <v>0.0009675372626179414</v>
       </c>
       <c r="T30">
-        <v>0.0007233916902350773</v>
+        <v>0.001070208316278679</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>18.2652017763658</v>
+        <v>22.09862766666667</v>
       </c>
       <c r="H31">
-        <v>18.2652017763658</v>
+        <v>66.295883</v>
       </c>
       <c r="I31">
-        <v>0.0718048501950882</v>
+        <v>0.07857783710966491</v>
       </c>
       <c r="J31">
-        <v>0.0718048501950882</v>
+        <v>0.08509179418640352</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>547.2370587268842</v>
+        <v>662.1483517810112</v>
       </c>
       <c r="R31">
-        <v>547.2370587268842</v>
+        <v>3972.890110686067</v>
       </c>
       <c r="S31">
-        <v>0.004370724304311859</v>
+        <v>0.004635745540117286</v>
       </c>
       <c r="T31">
-        <v>0.004370724304311859</v>
+        <v>0.003418447792395698</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>31.9457298757606</v>
+        <v>32.477465</v>
       </c>
       <c r="H32">
-        <v>31.9457298757606</v>
+        <v>64.95493</v>
       </c>
       <c r="I32">
-        <v>0.1255862582952614</v>
+        <v>0.1154826893777783</v>
       </c>
       <c r="J32">
-        <v>0.1255862582952614</v>
+        <v>0.08337066021056311</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>58.43819294966418</v>
+        <v>65.57349579839</v>
       </c>
       <c r="R32">
-        <v>58.43819294966418</v>
+        <v>262.29398319356</v>
       </c>
       <c r="S32">
-        <v>0.000466739644459344</v>
+        <v>0.0004590844934970409</v>
       </c>
       <c r="T32">
-        <v>0.000466739644459344</v>
+        <v>0.0002256891740838665</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>31.9457298757606</v>
+        <v>32.477465</v>
       </c>
       <c r="H33">
-        <v>31.9457298757606</v>
+        <v>64.95493</v>
       </c>
       <c r="I33">
-        <v>0.1255862582952614</v>
+        <v>0.1154826893777783</v>
       </c>
       <c r="J33">
-        <v>0.1255862582952614</v>
+        <v>0.08337066021056311</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>4201.233116863552</v>
+        <v>4536.933518973083</v>
       </c>
       <c r="R33">
-        <v>4201.233116863552</v>
+        <v>27221.6011138385</v>
       </c>
       <c r="S33">
-        <v>0.03355480298551881</v>
+        <v>0.03176337941462386</v>
       </c>
       <c r="T33">
-        <v>0.03355480298551881</v>
+        <v>0.0234226519336091</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>31.9457298757606</v>
+        <v>32.477465</v>
       </c>
       <c r="H34">
-        <v>31.9457298757606</v>
+        <v>64.95493</v>
       </c>
       <c r="I34">
-        <v>0.1255862582952614</v>
+        <v>0.1154826893777783</v>
       </c>
       <c r="J34">
-        <v>0.1255862582952614</v>
+        <v>0.08337066021056311</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>5885.251886900074</v>
+        <v>6052.333237539289</v>
       </c>
       <c r="R34">
-        <v>5885.251886900074</v>
+        <v>36313.99942523574</v>
       </c>
       <c r="S34">
-        <v>0.04700488216005333</v>
+        <v>0.04237279566997328</v>
       </c>
       <c r="T34">
-        <v>0.04700488216005333</v>
+        <v>0.03124614769342784</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>31.9457298757606</v>
+        <v>32.477465</v>
       </c>
       <c r="H35">
-        <v>31.9457298757606</v>
+        <v>64.95493</v>
       </c>
       <c r="I35">
-        <v>0.1255862582952614</v>
+        <v>0.1154826893777783</v>
       </c>
       <c r="J35">
-        <v>0.1255862582952614</v>
+        <v>0.08337066021056311</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>4463.594406692177</v>
+        <v>4663.932835166357</v>
       </c>
       <c r="R35">
-        <v>4463.594406692177</v>
+        <v>27983.59701099814</v>
       </c>
       <c r="S35">
-        <v>0.03565025476035353</v>
+        <v>0.03265251024468236</v>
       </c>
       <c r="T35">
-        <v>0.03565025476035353</v>
+        <v>0.02407830641180713</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>31.9457298757606</v>
+        <v>32.477465</v>
       </c>
       <c r="H36">
-        <v>31.9457298757606</v>
+        <v>64.95493</v>
       </c>
       <c r="I36">
-        <v>0.1255862582952614</v>
+        <v>0.1154826893777783</v>
       </c>
       <c r="J36">
-        <v>0.1255862582952614</v>
+        <v>0.08337066021056311</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>158.4104922183665</v>
+        <v>203.1048208582967</v>
       </c>
       <c r="R36">
-        <v>158.4104922183665</v>
+        <v>1218.62892514978</v>
       </c>
       <c r="S36">
-        <v>0.001265207787658926</v>
+        <v>0.001421950632267919</v>
       </c>
       <c r="T36">
-        <v>0.001265207787658926</v>
+        <v>0.001048561435848128</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>31.9457298757606</v>
+        <v>32.477465</v>
       </c>
       <c r="H37">
-        <v>31.9457298757606</v>
+        <v>64.95493</v>
       </c>
       <c r="I37">
-        <v>0.1255862582952614</v>
+        <v>0.1154826893777783</v>
       </c>
       <c r="J37">
-        <v>0.1255862582952614</v>
+        <v>0.08337066021056311</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>957.1143790327801</v>
+        <v>973.1328227323926</v>
       </c>
       <c r="R37">
-        <v>957.1143790327801</v>
+        <v>3892.53129092957</v>
       </c>
       <c r="S37">
-        <v>0.007644370957217505</v>
+        <v>0.006812968922733796</v>
       </c>
       <c r="T37">
-        <v>0.007644370957217505</v>
+        <v>0.003349303561787043</v>
       </c>
     </row>
   </sheetData>
